--- a/基站数据导入模版/develop.xlsx
+++ b/基站数据导入模版/develop.xlsx
@@ -534,6 +534,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="18.875" customWidth="1"/>
     <col min="4" max="4" width="16.25" customWidth="1"/>
     <col min="5" max="6" width="28.875" customWidth="1"/>
